--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.1283136387646</v>
+        <v>381.9285204116655</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.6961229538645</v>
+        <v>522.5714511243846</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.5868789386371</v>
+        <v>472.6979652627106</v>
       </c>
       <c r="AD2" t="n">
-        <v>330128.3136387646</v>
+        <v>381928.5204116656</v>
       </c>
       <c r="AE2" t="n">
-        <v>451696.1229538645</v>
+        <v>522571.4511243846</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.572794421976723e-06</v>
+        <v>3.709106163264238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.81315104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>408586.8789386371</v>
+        <v>472697.9652627106</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.8655278599799</v>
+        <v>196.3989990419134</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.4715562210272</v>
+        <v>268.7217750013496</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.3346217326373</v>
+        <v>243.0753459486794</v>
       </c>
       <c r="AD3" t="n">
-        <v>161865.5278599799</v>
+        <v>196398.9990419135</v>
       </c>
       <c r="AE3" t="n">
-        <v>221471.5562210272</v>
+        <v>268721.7750013496</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.008857384831419e-06</v>
+        <v>5.779427033389339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.581380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>200334.6217326373</v>
+        <v>243075.3459486794</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.524561374498</v>
+        <v>195.0580325564315</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.6367867163256</v>
+        <v>266.887005496648</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.6749600543487</v>
+        <v>241.4156842703907</v>
       </c>
       <c r="AD4" t="n">
-        <v>160524.561374498</v>
+        <v>195058.0325564315</v>
       </c>
       <c r="AE4" t="n">
-        <v>219636.7867163256</v>
+        <v>266887.005496648</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.041535496592627e-06</v>
+        <v>5.826537904239335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.51953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>198674.9600543487</v>
+        <v>241415.6842703907</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.0323918979387</v>
+        <v>271.1195096729567</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.3722227906259</v>
+        <v>370.9576740831457</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.4644176682584</v>
+        <v>335.5539943110151</v>
       </c>
       <c r="AD2" t="n">
-        <v>229032.3918979387</v>
+        <v>271119.5096729567</v>
       </c>
       <c r="AE2" t="n">
-        <v>313372.2227906259</v>
+        <v>370957.6740831457</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.210996765928074e-06</v>
+        <v>4.700778470982717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>283464.4176682584</v>
+        <v>335553.9943110151</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.4153576277906</v>
+        <v>187.0850518478022</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.9096605141514</v>
+        <v>255.9780215480228</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.8761771247996</v>
+        <v>231.5478384389637</v>
       </c>
       <c r="AD3" t="n">
-        <v>153415.3576277906</v>
+        <v>187085.0518478022</v>
       </c>
       <c r="AE3" t="n">
-        <v>209909.6605141514</v>
+        <v>255978.0215480228</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.098331020359754e-06</v>
+        <v>5.999802438885203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.672526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>189876.1771247996</v>
+        <v>231547.8384389638</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.6442832321747</v>
+        <v>194.7135276776847</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.9053277944114</v>
+        <v>266.4156387230642</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.5361175628784</v>
+        <v>240.9893040801103</v>
       </c>
       <c r="AD2" t="n">
-        <v>163644.2832321747</v>
+        <v>194713.5276776847</v>
       </c>
       <c r="AE2" t="n">
-        <v>223905.3277944115</v>
+        <v>266415.6387230642</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.871089184897492e-06</v>
+        <v>5.989052788859031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>202536.1175628784</v>
+        <v>240989.3040801103</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.8001788779555</v>
+        <v>186.8007895789128</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.8044340426279</v>
+        <v>255.5890813709623</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.5901161270502</v>
+        <v>231.1960181665208</v>
       </c>
       <c r="AD2" t="n">
-        <v>154800.1788779555</v>
+        <v>186800.7895789128</v>
       </c>
       <c r="AE2" t="n">
-        <v>211804.4340426279</v>
+        <v>255589.0813709623</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.056588088529581e-06</v>
+        <v>6.13069711063799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.274739583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>191590.1161270502</v>
+        <v>231196.0181665208</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.5725811206043</v>
+        <v>213.281387960289</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.2261512047154</v>
+        <v>291.8210043178933</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.2993044933278</v>
+        <v>263.9700172392314</v>
       </c>
       <c r="AD2" t="n">
-        <v>175572.5811206043</v>
+        <v>213281.387960289</v>
       </c>
       <c r="AE2" t="n">
-        <v>240226.1512047154</v>
+        <v>291821.0043178932</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.613571100858174e-06</v>
+        <v>5.711205727155186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.08463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>217299.3044933277</v>
+        <v>263970.0172392314</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.4934440705433</v>
+        <v>298.7791059867275</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.9456458692834</v>
+        <v>408.8027540149151</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.4518859829313</v>
+        <v>369.7871929299996</v>
       </c>
       <c r="AD2" t="n">
-        <v>256493.4440705432</v>
+        <v>298779.1059867275</v>
       </c>
       <c r="AE2" t="n">
-        <v>350945.6458692834</v>
+        <v>408802.7540149151</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.03244929801209e-06</v>
+        <v>4.420966253381976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>317451.8859829313</v>
+        <v>369787.1929299996</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.4937756257972</v>
+        <v>189.390506235558</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.7534437123533</v>
+        <v>259.132445950818</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.4485536458407</v>
+        <v>234.4012090040196</v>
       </c>
       <c r="AD3" t="n">
-        <v>155493.7756257972</v>
+        <v>189390.506235558</v>
       </c>
       <c r="AE3" t="n">
-        <v>212753.4437123533</v>
+        <v>259132.445950818</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.074055095208124e-06</v>
+        <v>5.939509063561663e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.646484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>192448.5536458407</v>
+        <v>234401.2090040196</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.66924851001</v>
+        <v>225.8461479237795</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.1455893110785</v>
+        <v>309.0126632180201</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.5085365769145</v>
+        <v>279.5209283425804</v>
       </c>
       <c r="AD2" t="n">
-        <v>188669.24851001</v>
+        <v>225846.1479237795</v>
       </c>
       <c r="AE2" t="n">
-        <v>258145.5893110785</v>
+        <v>309012.6632180201</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.389117791908612e-06</v>
+        <v>5.430162798537287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>233508.5365769145</v>
+        <v>279520.9283425804</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.3232852559357</v>
+        <v>206.3414773983985</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.1485653707472</v>
+        <v>282.3255125198735</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.5154391319337</v>
+        <v>255.3807618514053</v>
       </c>
       <c r="AD2" t="n">
-        <v>173323.2852559357</v>
+        <v>206341.4773983985</v>
       </c>
       <c r="AE2" t="n">
-        <v>237148.5653707472</v>
+        <v>282325.5125198736</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.804793822939425e-06</v>
+        <v>5.649522224471844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.512369791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>214515.4391319337</v>
+        <v>255380.7618514053</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.5140460231764</v>
+        <v>182.4468973110675</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.5717138630002</v>
+        <v>249.6318938899289</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.0476766101773</v>
+        <v>225.8073762977102</v>
       </c>
       <c r="AD3" t="n">
-        <v>149514.0460231764</v>
+        <v>182446.8973110676</v>
       </c>
       <c r="AE3" t="n">
-        <v>204571.7138630002</v>
+        <v>249631.8938899289</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.108906652434191e-06</v>
+        <v>6.101082090506942e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.884114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>185047.6766101773</v>
+        <v>225807.3762977102</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.4474483930533</v>
+        <v>254.069386800694</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.6799714111848</v>
+        <v>347.6289437708182</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.9378829116891</v>
+        <v>314.4517252777219</v>
       </c>
       <c r="AD2" t="n">
-        <v>212447.4483930533</v>
+        <v>254069.386800694</v>
       </c>
       <c r="AE2" t="n">
-        <v>290679.9714111848</v>
+        <v>347628.9437708182</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391066131799025e-06</v>
+        <v>4.986367689777212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.358723958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>262937.8829116892</v>
+        <v>314451.7252777219</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.5970057684949</v>
+        <v>186.0310302550813</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.7899553971276</v>
+        <v>254.5358627047119</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.8633350926282</v>
+        <v>230.2433172115753</v>
       </c>
       <c r="AD3" t="n">
-        <v>152597.0057684949</v>
+        <v>186031.0302550813</v>
       </c>
       <c r="AE3" t="n">
-        <v>208789.9553971276</v>
+        <v>254535.8627047118</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.093772178892835e-06</v>
+        <v>6.019656511773945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.75390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>188863.3350926282</v>
+        <v>230243.3172115753</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.7177102978458</v>
+        <v>357.0390893472286</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.2964585430052</v>
+        <v>488.5166334978196</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.3748316224268</v>
+        <v>441.8932916341881</v>
       </c>
       <c r="AD2" t="n">
-        <v>305717.7102978458</v>
+        <v>357039.0893472286</v>
       </c>
       <c r="AE2" t="n">
-        <v>418296.4585430052</v>
+        <v>488516.6334978195</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.722671877378818e-06</v>
+        <v>3.93908681686286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.25325520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>378374.8316224268</v>
+        <v>441893.2916341882</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.6831311543197</v>
+        <v>193.0111119876359</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.1172606509111</v>
+        <v>264.0863184706611</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.3958940204395</v>
+        <v>238.8822908833743</v>
       </c>
       <c r="AD3" t="n">
-        <v>158683.1311543197</v>
+        <v>193011.1119876359</v>
       </c>
       <c r="AE3" t="n">
-        <v>217117.2606509111</v>
+        <v>264086.3184706611</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.049750900639057e-06</v>
+        <v>5.859068261888204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.565104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>196395.8940204395</v>
+        <v>238882.2908833743</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.3488196414045</v>
+        <v>192.6768004747207</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.6598408901577</v>
+        <v>263.6288987099078</v>
       </c>
       <c r="AC4" t="n">
-        <v>195.9821297596596</v>
+        <v>238.4685266225944</v>
       </c>
       <c r="AD4" t="n">
-        <v>158348.8196414045</v>
+        <v>192676.8004747207</v>
       </c>
       <c r="AE4" t="n">
-        <v>216659.8408901577</v>
+        <v>263628.8987099078</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.065467672278265e-06</v>
+        <v>5.881806854989349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.535807291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>195982.1297596596</v>
+        <v>238468.5266225944</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.9759114266779</v>
+        <v>188.2738970134526</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.4131231854483</v>
+        <v>257.604651951812</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.0452742358898</v>
+        <v>233.0192255200058</v>
       </c>
       <c r="AD2" t="n">
-        <v>155975.9114266779</v>
+        <v>188273.8970134526</v>
       </c>
       <c r="AE2" t="n">
-        <v>213413.1231854483</v>
+        <v>257604.651951812</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.069758219110428e-06</v>
+        <v>6.111493300479846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>193045.2742358898</v>
+        <v>233019.2255200059</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.6376037225137</v>
+        <v>188.9355893092884</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.3184797764141</v>
+        <v>258.5100085427778</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.86422486449</v>
+        <v>233.8381761486062</v>
       </c>
       <c r="AD3" t="n">
-        <v>156637.6037225137</v>
+        <v>188935.5893092884</v>
       </c>
       <c r="AE3" t="n">
-        <v>214318.4797764141</v>
+        <v>258510.0085427778</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.066398316647939e-06</v>
+        <v>6.106447786647268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>193864.22486449</v>
+        <v>233838.1761486062</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.7095473756063</v>
+        <v>193.9151664814363</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.680428022734</v>
+        <v>265.3232857131475</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.4779450676514</v>
+        <v>240.0012037083326</v>
       </c>
       <c r="AD2" t="n">
-        <v>154709.5473756063</v>
+        <v>193915.1664814363</v>
       </c>
       <c r="AE2" t="n">
-        <v>211680.428022734</v>
+        <v>265323.2857131475</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.958286045911945e-06</v>
+        <v>6.071008354061351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.720703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>191477.9450676514</v>
+        <v>240001.2037083326</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.0931238055729</v>
+        <v>203.2638320554372</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.8876953852689</v>
+        <v>278.1145423855062</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.3292907731355</v>
+        <v>251.5716807965269</v>
       </c>
       <c r="AD2" t="n">
-        <v>165093.1238055729</v>
+        <v>203263.8320554372</v>
       </c>
       <c r="AE2" t="n">
-        <v>225887.6953852689</v>
+        <v>278114.5423855062</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.764541794829032e-06</v>
+        <v>5.882022297457328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.485677083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>204329.2907731355</v>
+        <v>251571.6807965269</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.7027393287918</v>
+        <v>258.6596915883756</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.1880511476746</v>
+        <v>353.909601291443</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.065542406659</v>
+        <v>320.132965659432</v>
       </c>
       <c r="AD2" t="n">
-        <v>207702.7393287917</v>
+        <v>258659.6915883755</v>
       </c>
       <c r="AE2" t="n">
-        <v>284188.0511476746</v>
+        <v>353909.601291443</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.03429162325523e-06</v>
+        <v>4.944912639271029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.63346354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>257065.542406659</v>
+        <v>320132.965659432</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.6804456465181</v>
+        <v>229.0810829880519</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.792665610346</v>
+        <v>313.438844088218</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.2847340153392</v>
+        <v>283.5246807227119</v>
       </c>
       <c r="AD2" t="n">
-        <v>187680.4456465181</v>
+        <v>229081.0829880519</v>
       </c>
       <c r="AE2" t="n">
-        <v>256792.665610346</v>
+        <v>313438.844088218</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.596661969300145e-06</v>
+        <v>5.313639354684896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.912760416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>232284.7340153392</v>
+        <v>283524.680722712</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.145698891523</v>
+        <v>184.3344814484073</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.8042133009151</v>
+        <v>252.2145697809708</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.067109435071</v>
+        <v>228.1435652265202</v>
       </c>
       <c r="AD3" t="n">
-        <v>151145.698891523</v>
+        <v>184334.4814484073</v>
       </c>
       <c r="AE3" t="n">
-        <v>206804.2133009151</v>
+        <v>252214.5697809708</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.098695830688643e-06</v>
+        <v>6.055334544844072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.822265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>187067.109435071</v>
+        <v>228143.5652265202</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.4056991604976</v>
+        <v>326.4942553501659</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.822227633334</v>
+        <v>446.7238440800671</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.858843101326</v>
+        <v>404.0891473819178</v>
       </c>
       <c r="AD2" t="n">
-        <v>275405.6991604976</v>
+        <v>326494.2553501659</v>
       </c>
       <c r="AE2" t="n">
-        <v>376822.227633334</v>
+        <v>446723.8440800671</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.877033118409615e-06</v>
+        <v>4.177938351492389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.73567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>340858.843101326</v>
+        <v>404089.1473819178</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.5298656964638</v>
+        <v>190.6457970592899</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.1710678561066</v>
+        <v>260.8499902353697</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.7308817309626</v>
+        <v>235.9548332726428</v>
       </c>
       <c r="AD3" t="n">
-        <v>156529.8656964638</v>
+        <v>190645.7970592899</v>
       </c>
       <c r="AE3" t="n">
-        <v>214171.0678561066</v>
+        <v>260849.9902353697</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.075369889280932e-06</v>
+        <v>5.918125880440403e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>193730.8817309626</v>
+        <v>235954.8332726428</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.0439280244602</v>
+        <v>318.8839884405285</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.5400628852684</v>
+        <v>436.3111411530206</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.3215024976363</v>
+        <v>394.6702182079081</v>
       </c>
       <c r="AD2" t="n">
-        <v>262043.9280244602</v>
+        <v>318883.9884405285</v>
       </c>
       <c r="AE2" t="n">
-        <v>358540.0628852684</v>
+        <v>436311.1411530206</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.463936336464729e-06</v>
+        <v>4.107235073920724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.11002604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>324321.5024976364</v>
+        <v>394670.2182079082</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.796347767885</v>
+        <v>186.4812603251275</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.7991921488128</v>
+        <v>255.1518873492976</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.5853745122238</v>
+        <v>230.800549328678</v>
       </c>
       <c r="AD2" t="n">
-        <v>154796.347767885</v>
+        <v>186481.2603251275</v>
       </c>
       <c r="AE2" t="n">
-        <v>211799.1921488128</v>
+        <v>255151.8873492976</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.009178563155946e-06</v>
+        <v>6.101595402932297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.486328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>191585.3745122238</v>
+        <v>230800.549328678</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.8631737801252</v>
+        <v>194.4428070462289</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.4683352651153</v>
+        <v>266.0452268117554</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.331708180237</v>
+        <v>240.6542437617402</v>
       </c>
       <c r="AD2" t="n">
-        <v>161863.1737801252</v>
+        <v>194442.8070462289</v>
       </c>
       <c r="AE2" t="n">
-        <v>221468.3352651153</v>
+        <v>266045.2268117553</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.985657110336285e-06</v>
+        <v>5.950230122723281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.219401041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>200331.708180237</v>
+        <v>240654.2437617402</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.6031163499973</v>
+        <v>190.182749616101</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.6395367487475</v>
+        <v>260.2164282953876</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.0592020134995</v>
+        <v>235.3817375950026</v>
       </c>
       <c r="AD3" t="n">
-        <v>157603.1163499973</v>
+        <v>190182.749616101</v>
       </c>
       <c r="AE3" t="n">
-        <v>215639.5367487475</v>
+        <v>260216.4282953876</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.081952840065946e-06</v>
+        <v>6.093991047425282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.024088541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>195059.2020134995</v>
+        <v>235381.7375950026</v>
       </c>
     </row>
   </sheetData>
